--- a/tt.xlsx
+++ b/tt.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="369">
   <si>
     <t>비율_x</t>
   </si>
@@ -22,6 +22,810 @@
     <t>날짜</t>
   </si>
   <si>
+    <t>20190611</t>
+  </si>
+  <si>
+    <t>20190612</t>
+  </si>
+  <si>
+    <t>20190613</t>
+  </si>
+  <si>
+    <t>20190614</t>
+  </si>
+  <si>
+    <t>20190615</t>
+  </si>
+  <si>
+    <t>20190616</t>
+  </si>
+  <si>
+    <t>20190617</t>
+  </si>
+  <si>
+    <t>20190618</t>
+  </si>
+  <si>
+    <t>20190619</t>
+  </si>
+  <si>
+    <t>20190620</t>
+  </si>
+  <si>
+    <t>20190621</t>
+  </si>
+  <si>
+    <t>20190622</t>
+  </si>
+  <si>
+    <t>20190623</t>
+  </si>
+  <si>
+    <t>20190624</t>
+  </si>
+  <si>
+    <t>20190625</t>
+  </si>
+  <si>
+    <t>20190626</t>
+  </si>
+  <si>
+    <t>20190627</t>
+  </si>
+  <si>
+    <t>20190628</t>
+  </si>
+  <si>
+    <t>20190629</t>
+  </si>
+  <si>
+    <t>20190630</t>
+  </si>
+  <si>
+    <t>20190701</t>
+  </si>
+  <si>
+    <t>20190702</t>
+  </si>
+  <si>
+    <t>20190703</t>
+  </si>
+  <si>
+    <t>20190704</t>
+  </si>
+  <si>
+    <t>20190705</t>
+  </si>
+  <si>
+    <t>20190706</t>
+  </si>
+  <si>
+    <t>20190707</t>
+  </si>
+  <si>
+    <t>20190708</t>
+  </si>
+  <si>
+    <t>20190709</t>
+  </si>
+  <si>
+    <t>20190710</t>
+  </si>
+  <si>
+    <t>20190711</t>
+  </si>
+  <si>
+    <t>20190712</t>
+  </si>
+  <si>
+    <t>20190713</t>
+  </si>
+  <si>
+    <t>20190714</t>
+  </si>
+  <si>
+    <t>20190715</t>
+  </si>
+  <si>
+    <t>20190716</t>
+  </si>
+  <si>
+    <t>20190717</t>
+  </si>
+  <si>
+    <t>20190718</t>
+  </si>
+  <si>
+    <t>20190719</t>
+  </si>
+  <si>
+    <t>20190720</t>
+  </si>
+  <si>
+    <t>20190721</t>
+  </si>
+  <si>
+    <t>20190722</t>
+  </si>
+  <si>
+    <t>20190723</t>
+  </si>
+  <si>
+    <t>20190724</t>
+  </si>
+  <si>
+    <t>20190725</t>
+  </si>
+  <si>
+    <t>20190726</t>
+  </si>
+  <si>
+    <t>20190727</t>
+  </si>
+  <si>
+    <t>20190728</t>
+  </si>
+  <si>
+    <t>20190729</t>
+  </si>
+  <si>
+    <t>20190730</t>
+  </si>
+  <si>
+    <t>20190731</t>
+  </si>
+  <si>
+    <t>20190801</t>
+  </si>
+  <si>
+    <t>20190802</t>
+  </si>
+  <si>
+    <t>20190803</t>
+  </si>
+  <si>
+    <t>20190804</t>
+  </si>
+  <si>
+    <t>20190805</t>
+  </si>
+  <si>
+    <t>20190806</t>
+  </si>
+  <si>
+    <t>20190807</t>
+  </si>
+  <si>
+    <t>20190808</t>
+  </si>
+  <si>
+    <t>20190809</t>
+  </si>
+  <si>
+    <t>20190810</t>
+  </si>
+  <si>
+    <t>20190811</t>
+  </si>
+  <si>
+    <t>20190812</t>
+  </si>
+  <si>
+    <t>20190813</t>
+  </si>
+  <si>
+    <t>20190814</t>
+  </si>
+  <si>
+    <t>20190815</t>
+  </si>
+  <si>
+    <t>20190816</t>
+  </si>
+  <si>
+    <t>20190817</t>
+  </si>
+  <si>
+    <t>20190818</t>
+  </si>
+  <si>
+    <t>20190819</t>
+  </si>
+  <si>
+    <t>20190820</t>
+  </si>
+  <si>
+    <t>20190821</t>
+  </si>
+  <si>
+    <t>20190822</t>
+  </si>
+  <si>
+    <t>20190823</t>
+  </si>
+  <si>
+    <t>20190824</t>
+  </si>
+  <si>
+    <t>20190825</t>
+  </si>
+  <si>
+    <t>20190826</t>
+  </si>
+  <si>
+    <t>20190827</t>
+  </si>
+  <si>
+    <t>20190828</t>
+  </si>
+  <si>
+    <t>20190829</t>
+  </si>
+  <si>
+    <t>20190830</t>
+  </si>
+  <si>
+    <t>20190831</t>
+  </si>
+  <si>
+    <t>20190901</t>
+  </si>
+  <si>
+    <t>20190902</t>
+  </si>
+  <si>
+    <t>20190903</t>
+  </si>
+  <si>
+    <t>20190904</t>
+  </si>
+  <si>
+    <t>20190905</t>
+  </si>
+  <si>
+    <t>20190906</t>
+  </si>
+  <si>
+    <t>20190907</t>
+  </si>
+  <si>
+    <t>20190908</t>
+  </si>
+  <si>
+    <t>20190909</t>
+  </si>
+  <si>
+    <t>20190910</t>
+  </si>
+  <si>
+    <t>20190911</t>
+  </si>
+  <si>
+    <t>20190912</t>
+  </si>
+  <si>
+    <t>20190913</t>
+  </si>
+  <si>
+    <t>20190914</t>
+  </si>
+  <si>
+    <t>20190915</t>
+  </si>
+  <si>
+    <t>20190916</t>
+  </si>
+  <si>
+    <t>20190917</t>
+  </si>
+  <si>
+    <t>20190918</t>
+  </si>
+  <si>
+    <t>20190919</t>
+  </si>
+  <si>
+    <t>20190920</t>
+  </si>
+  <si>
+    <t>20190921</t>
+  </si>
+  <si>
+    <t>20190922</t>
+  </si>
+  <si>
+    <t>20190923</t>
+  </si>
+  <si>
+    <t>20190924</t>
+  </si>
+  <si>
+    <t>20190925</t>
+  </si>
+  <si>
+    <t>20190926</t>
+  </si>
+  <si>
+    <t>20190927</t>
+  </si>
+  <si>
+    <t>20190928</t>
+  </si>
+  <si>
+    <t>20190929</t>
+  </si>
+  <si>
+    <t>20190930</t>
+  </si>
+  <si>
+    <t>20191001</t>
+  </si>
+  <si>
+    <t>20191002</t>
+  </si>
+  <si>
+    <t>20191003</t>
+  </si>
+  <si>
+    <t>20191004</t>
+  </si>
+  <si>
+    <t>20191005</t>
+  </si>
+  <si>
+    <t>20191006</t>
+  </si>
+  <si>
+    <t>20191007</t>
+  </si>
+  <si>
+    <t>20191008</t>
+  </si>
+  <si>
+    <t>20191009</t>
+  </si>
+  <si>
+    <t>20191010</t>
+  </si>
+  <si>
+    <t>20191011</t>
+  </si>
+  <si>
+    <t>20191012</t>
+  </si>
+  <si>
+    <t>20191013</t>
+  </si>
+  <si>
+    <t>20191014</t>
+  </si>
+  <si>
+    <t>20191015</t>
+  </si>
+  <si>
+    <t>20191016</t>
+  </si>
+  <si>
+    <t>20191017</t>
+  </si>
+  <si>
+    <t>20191018</t>
+  </si>
+  <si>
+    <t>20191019</t>
+  </si>
+  <si>
+    <t>20191020</t>
+  </si>
+  <si>
+    <t>20191021</t>
+  </si>
+  <si>
+    <t>20191022</t>
+  </si>
+  <si>
+    <t>20191023</t>
+  </si>
+  <si>
+    <t>20191024</t>
+  </si>
+  <si>
+    <t>20191025</t>
+  </si>
+  <si>
+    <t>20191026</t>
+  </si>
+  <si>
+    <t>20191027</t>
+  </si>
+  <si>
+    <t>20191028</t>
+  </si>
+  <si>
+    <t>20191029</t>
+  </si>
+  <si>
+    <t>20191030</t>
+  </si>
+  <si>
+    <t>20191031</t>
+  </si>
+  <si>
+    <t>20191101</t>
+  </si>
+  <si>
+    <t>20191102</t>
+  </si>
+  <si>
+    <t>20191103</t>
+  </si>
+  <si>
+    <t>20191104</t>
+  </si>
+  <si>
+    <t>20191105</t>
+  </si>
+  <si>
+    <t>20191106</t>
+  </si>
+  <si>
+    <t>20191107</t>
+  </si>
+  <si>
+    <t>20191108</t>
+  </si>
+  <si>
+    <t>20191109</t>
+  </si>
+  <si>
+    <t>20191110</t>
+  </si>
+  <si>
+    <t>20191111</t>
+  </si>
+  <si>
+    <t>20191112</t>
+  </si>
+  <si>
+    <t>20191113</t>
+  </si>
+  <si>
+    <t>20191114</t>
+  </si>
+  <si>
+    <t>20191115</t>
+  </si>
+  <si>
+    <t>20191116</t>
+  </si>
+  <si>
+    <t>20191117</t>
+  </si>
+  <si>
+    <t>20191118</t>
+  </si>
+  <si>
+    <t>20191119</t>
+  </si>
+  <si>
+    <t>20191120</t>
+  </si>
+  <si>
+    <t>20191121</t>
+  </si>
+  <si>
+    <t>20191122</t>
+  </si>
+  <si>
+    <t>20191123</t>
+  </si>
+  <si>
+    <t>20191124</t>
+  </si>
+  <si>
+    <t>20191125</t>
+  </si>
+  <si>
+    <t>20191126</t>
+  </si>
+  <si>
+    <t>20191127</t>
+  </si>
+  <si>
+    <t>20191128</t>
+  </si>
+  <si>
+    <t>20191129</t>
+  </si>
+  <si>
+    <t>20191130</t>
+  </si>
+  <si>
+    <t>20191201</t>
+  </si>
+  <si>
+    <t>20191202</t>
+  </si>
+  <si>
+    <t>20191203</t>
+  </si>
+  <si>
+    <t>20191204</t>
+  </si>
+  <si>
+    <t>20191205</t>
+  </si>
+  <si>
+    <t>20191206</t>
+  </si>
+  <si>
+    <t>20191207</t>
+  </si>
+  <si>
+    <t>20191208</t>
+  </si>
+  <si>
+    <t>20191209</t>
+  </si>
+  <si>
+    <t>20191210</t>
+  </si>
+  <si>
+    <t>20191211</t>
+  </si>
+  <si>
+    <t>20191212</t>
+  </si>
+  <si>
+    <t>20191213</t>
+  </si>
+  <si>
+    <t>20191214</t>
+  </si>
+  <si>
+    <t>20191215</t>
+  </si>
+  <si>
+    <t>20191216</t>
+  </si>
+  <si>
+    <t>20191217</t>
+  </si>
+  <si>
+    <t>20191218</t>
+  </si>
+  <si>
+    <t>20191219</t>
+  </si>
+  <si>
+    <t>20191220</t>
+  </si>
+  <si>
+    <t>20191221</t>
+  </si>
+  <si>
+    <t>20191222</t>
+  </si>
+  <si>
+    <t>20191223</t>
+  </si>
+  <si>
+    <t>20191224</t>
+  </si>
+  <si>
+    <t>20191225</t>
+  </si>
+  <si>
+    <t>20191226</t>
+  </si>
+  <si>
+    <t>20191227</t>
+  </si>
+  <si>
+    <t>20191228</t>
+  </si>
+  <si>
+    <t>20191229</t>
+  </si>
+  <si>
+    <t>20191230</t>
+  </si>
+  <si>
+    <t>20191231</t>
+  </si>
+  <si>
+    <t>20200101</t>
+  </si>
+  <si>
+    <t>20200102</t>
+  </si>
+  <si>
+    <t>20200103</t>
+  </si>
+  <si>
+    <t>20200104</t>
+  </si>
+  <si>
+    <t>20200105</t>
+  </si>
+  <si>
+    <t>20200106</t>
+  </si>
+  <si>
+    <t>20200107</t>
+  </si>
+  <si>
+    <t>20200108</t>
+  </si>
+  <si>
+    <t>20200109</t>
+  </si>
+  <si>
+    <t>20200110</t>
+  </si>
+  <si>
+    <t>20200111</t>
+  </si>
+  <si>
+    <t>20200112</t>
+  </si>
+  <si>
+    <t>20200113</t>
+  </si>
+  <si>
+    <t>20200114</t>
+  </si>
+  <si>
+    <t>20200115</t>
+  </si>
+  <si>
+    <t>20200116</t>
+  </si>
+  <si>
+    <t>20200117</t>
+  </si>
+  <si>
+    <t>20200118</t>
+  </si>
+  <si>
+    <t>20200119</t>
+  </si>
+  <si>
+    <t>20200120</t>
+  </si>
+  <si>
+    <t>20200121</t>
+  </si>
+  <si>
+    <t>20200122</t>
+  </si>
+  <si>
+    <t>20200123</t>
+  </si>
+  <si>
+    <t>20200124</t>
+  </si>
+  <si>
+    <t>20200125</t>
+  </si>
+  <si>
+    <t>20200126</t>
+  </si>
+  <si>
+    <t>20200127</t>
+  </si>
+  <si>
+    <t>20200128</t>
+  </si>
+  <si>
+    <t>20200129</t>
+  </si>
+  <si>
+    <t>20200130</t>
+  </si>
+  <si>
+    <t>20200131</t>
+  </si>
+  <si>
+    <t>20200201</t>
+  </si>
+  <si>
+    <t>20200202</t>
+  </si>
+  <si>
+    <t>20200203</t>
+  </si>
+  <si>
+    <t>20200204</t>
+  </si>
+  <si>
+    <t>20200205</t>
+  </si>
+  <si>
+    <t>20200206</t>
+  </si>
+  <si>
+    <t>20200207</t>
+  </si>
+  <si>
+    <t>20200208</t>
+  </si>
+  <si>
+    <t>20200209</t>
+  </si>
+  <si>
+    <t>20200210</t>
+  </si>
+  <si>
+    <t>20200211</t>
+  </si>
+  <si>
+    <t>20200212</t>
+  </si>
+  <si>
+    <t>20200213</t>
+  </si>
+  <si>
+    <t>20200214</t>
+  </si>
+  <si>
+    <t>20200215</t>
+  </si>
+  <si>
+    <t>20200216</t>
+  </si>
+  <si>
+    <t>20200217</t>
+  </si>
+  <si>
+    <t>20200218</t>
+  </si>
+  <si>
+    <t>20200219</t>
+  </si>
+  <si>
+    <t>20200220</t>
+  </si>
+  <si>
+    <t>20200221</t>
+  </si>
+  <si>
+    <t>20200222</t>
+  </si>
+  <si>
+    <t>20200223</t>
+  </si>
+  <si>
+    <t>20200224</t>
+  </si>
+  <si>
+    <t>20200225</t>
+  </si>
+  <si>
+    <t>20200226</t>
+  </si>
+  <si>
+    <t>20200227</t>
+  </si>
+  <si>
+    <t>20200228</t>
+  </si>
+  <si>
+    <t>20200229</t>
+  </si>
+  <si>
+    <t>20200301</t>
+  </si>
+  <si>
+    <t>20200302</t>
+  </si>
+  <si>
+    <t>20200303</t>
+  </si>
+  <si>
+    <t>20200304</t>
+  </si>
+  <si>
     <t>20200305</t>
   </si>
   <si>
@@ -206,6 +1010,117 @@
   </si>
   <si>
     <t>20200505</t>
+  </si>
+  <si>
+    <t>20200506</t>
+  </si>
+  <si>
+    <t>20200507</t>
+  </si>
+  <si>
+    <t>20200508</t>
+  </si>
+  <si>
+    <t>20200509</t>
+  </si>
+  <si>
+    <t>20200510</t>
+  </si>
+  <si>
+    <t>20200511</t>
+  </si>
+  <si>
+    <t>20200512</t>
+  </si>
+  <si>
+    <t>20200513</t>
+  </si>
+  <si>
+    <t>20200514</t>
+  </si>
+  <si>
+    <t>20200515</t>
+  </si>
+  <si>
+    <t>20200516</t>
+  </si>
+  <si>
+    <t>20200517</t>
+  </si>
+  <si>
+    <t>20200518</t>
+  </si>
+  <si>
+    <t>20200519</t>
+  </si>
+  <si>
+    <t>20200520</t>
+  </si>
+  <si>
+    <t>20200521</t>
+  </si>
+  <si>
+    <t>20200522</t>
+  </si>
+  <si>
+    <t>20200523</t>
+  </si>
+  <si>
+    <t>20200524</t>
+  </si>
+  <si>
+    <t>20200525</t>
+  </si>
+  <si>
+    <t>20200526</t>
+  </si>
+  <si>
+    <t>20200527</t>
+  </si>
+  <si>
+    <t>20200528</t>
+  </si>
+  <si>
+    <t>20200529</t>
+  </si>
+  <si>
+    <t>20200530</t>
+  </si>
+  <si>
+    <t>20200531</t>
+  </si>
+  <si>
+    <t>20200601</t>
+  </si>
+  <si>
+    <t>20200602</t>
+  </si>
+  <si>
+    <t>20200603</t>
+  </si>
+  <si>
+    <t>20200604</t>
+  </si>
+  <si>
+    <t>20200605</t>
+  </si>
+  <si>
+    <t>20200606</t>
+  </si>
+  <si>
+    <t>20200607</t>
+  </si>
+  <si>
+    <t>20200608</t>
+  </si>
+  <si>
+    <t>20200609</t>
+  </si>
+  <si>
+    <t>20200610</t>
+  </si>
+  <si>
+    <t>20200611</t>
   </si>
 </sst>
 </file>
@@ -563,7 +1478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B368"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +1497,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>55.16539</v>
+        <v>59.60702</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -590,7 +1505,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>49.61832</v>
+        <v>52.54933</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -598,7 +1513,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>64.56318</v>
+        <v>8.75033</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -606,7 +1521,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>63.7659</v>
+        <v>15.69966</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -614,7 +1529,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>58.38846</v>
+        <v>43.45874</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -622,7 +1537,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>59.49109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -630,7 +1545,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>60.52586</v>
+        <v>2.29578</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -638,7 +1553,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>58.81255</v>
+        <v>1.15193</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -646,7 +1561,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>55.96268</v>
+        <v>0.90674</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -654,7 +1569,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>58.59202</v>
+        <v>0.76154</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -662,7 +1577,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>66.98896999999999</v>
+        <v>0.79676</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -670,7 +1585,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>54.67345</v>
+        <v>0.9186800000000001</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -678,7 +1593,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>57.21798</v>
+        <v>0.80116</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -686,7 +1601,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>55.21628</v>
+        <v>0.6627999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -694,7 +1609,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>51.94232</v>
+        <v>0.55328</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -702,7 +1617,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>47.12468</v>
+        <v>0.68903</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -710,7 +1625,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>47.43002</v>
+        <v>0.53126</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -718,7 +1633,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>50.68702</v>
+        <v>0.51922</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -726,7 +1641,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>44.17302</v>
+        <v>0.62497</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -734,7 +1649,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>42.1374</v>
+        <v>0.58894</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -742,7 +1657,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>39.49109</v>
+        <v>0.37385</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -750,7 +1665,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>45.85241</v>
+        <v>0.38086</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -758,7 +1673,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>41.86598</v>
+        <v>0.6185</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -766,7 +1681,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>46.2765</v>
+        <v>0.44097</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -774,7 +1689,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>55.18235</v>
+        <v>0.39514</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -782,7 +1697,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>42.35793</v>
+        <v>0.54061</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -790,7 +1705,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>39.16878</v>
+        <v>0.52434</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -798,7 +1713,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>39.86429</v>
+        <v>0.41186</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -806,7 +1721,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>39.27056</v>
+        <v>0.39532</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -814,7 +1729,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>71.87446</v>
+        <v>0.5065499999999999</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -822,7 +1737,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>100</v>
+        <v>0.31132</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -830,7 +1745,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>83.35877000000001</v>
+        <v>0.4035</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -838,7 +1753,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>67.68447</v>
+        <v>0.45867</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -846,7 +1761,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>66.83629999999999</v>
+        <v>0.52425</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -854,7 +1769,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>58.82951</v>
+        <v>0.31788</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -862,7 +1777,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>53.41815</v>
+        <v>0.29236</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -870,7 +1785,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>49.21119</v>
+        <v>0.37798</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -878,7 +1793,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>57.42154</v>
+        <v>0.36855</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -886,7 +1801,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>58.99915</v>
+        <v>0.42515</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -894,7 +1809,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>45.63189</v>
+        <v>0.72542</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -902,7 +1817,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>39.98303</v>
+        <v>2.33046</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -910,7 +1825,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>42.74809</v>
+        <v>0.51806</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -918,7 +1833,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>38.57506</v>
+        <v>0.37053</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -926,7 +1841,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>36.9296</v>
+        <v>0.62497</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -934,7 +1849,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>38.93129</v>
+        <v>0.81626</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -942,7 +1857,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>48.61747</v>
+        <v>18.88386</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -950,7 +1865,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>37.65903</v>
+        <v>8.186349999999999</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -958,7 +1873,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>35.38592</v>
+        <v>0.54079</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -966,7 +1881,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>37.6251</v>
+        <v>0.39335</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -974,7 +1889,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>38.94826</v>
+        <v>0.49604</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -982,7 +1897,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>33.94402</v>
+        <v>0.57978</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -990,7 +1905,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>37.09923</v>
+        <v>0.40521</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -998,7 +1913,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>38.65988</v>
+        <v>0.43333</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1006,7 +1921,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>33.72349</v>
+        <v>0.47313</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1014,7 +1929,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>33.18066</v>
+        <v>0.66576</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1022,7 +1937,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>28.36301</v>
+        <v>0.38706</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1030,7 +1945,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>29.17726</v>
+        <v>0.26109</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1038,7 +1953,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>27.58269</v>
+        <v>0.24726</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1046,7 +1961,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>30.85665</v>
+        <v>0.2354</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1054,7 +1969,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>27.82018</v>
+        <v>0.31482</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1062,7 +1977,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>25.22476</v>
+        <v>0.60988</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1070,7 +1985,2447 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>29.21119</v>
+        <v>0.78472</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64">
+        <v>0.43099</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65">
+        <v>0.24627</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66">
+        <v>0.26819</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67">
+        <v>0.39667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68">
+        <v>0.41671</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69">
+        <v>0.65983</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>0.65822</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>0.31725</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72">
+        <v>0.2823</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73">
+        <v>0.24402</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74">
+        <v>0.25534</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75">
+        <v>0.35058</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76">
+        <v>0.68553</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77">
+        <v>0.75157</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78">
+        <v>0.59694</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79">
+        <v>0.32695</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80">
+        <v>0.28778</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81">
+        <v>0.29496</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82">
+        <v>0.42614</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83">
+        <v>0.6177</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84">
+        <v>0.87601</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85">
+        <v>0.71967</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86">
+        <v>0.65067</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87">
+        <v>1.2168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88">
+        <v>47.14536</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89">
+        <v>20.19689</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90">
+        <v>1.24241</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91">
+        <v>1.14654</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92">
+        <v>1.40781</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93">
+        <v>12.61403</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94">
+        <v>10.0895</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95">
+        <v>0.95606</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96">
+        <v>0.71707</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97">
+        <v>1.90278</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98">
+        <v>1.1309</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99">
+        <v>0.42623</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100">
+        <v>0.47241</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <v>0.65624</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102">
+        <v>0.5538999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B103">
+        <v>0.49209</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B104">
+        <v>1.28284</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B105">
+        <v>0.68688</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <v>0.43072</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107">
+        <v>0.39721</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <v>0.59766</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <v>0.43306</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B110">
+        <v>0.45723</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <v>1.08598</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>0.73045</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <v>0.44222</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <v>0.55283</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>0.88706</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>0.79056</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>0.61033</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>0.86469</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>0.84501</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>0.81338</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>0.96612</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>1.76747</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>50.68337</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>26.09771</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>3.11357</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <v>1.64061</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <v>9.432180000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <v>15.54764</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <v>3.95095</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <v>1.87619</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>1.04528</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>1.22039</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <v>1.00359</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>0.61626</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <v>0.51653</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>0.62147</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <v>0.51985</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>0.48158</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>0.85633</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>0.74977</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>0.82524</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>0.40575</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>0.46927</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>0.5707100000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>0.59856</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>0.83746</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>1.09191</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>0.71967</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>0.5477</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>1.22569</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>0.88463</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B152">
+        <v>0.75202</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B153">
+        <v>0.87637</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B154">
+        <v>1.13189</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155">
+        <v>12.23632</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B156">
+        <v>1.13692</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B157">
+        <v>2.37053</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B158">
+        <v>15.20739</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B159">
+        <v>13.92149</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B160">
+        <v>1.94708</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B161">
+        <v>2.92129</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B162">
+        <v>2.21419</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>18.68655</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>11.65599</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>0.7827499999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>0.6392600000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>2.01824</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>0.95714</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>0.49344</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>0.46145</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>0.64546</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>0.55732</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>0.50269</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <v>0.92201</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>1.20467</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>0.53018</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>0.42407</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>0.45795</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179">
+        <v>0.78481</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180">
+        <v>0.48769</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181">
+        <v>0.86163</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182">
+        <v>1.17888</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183">
+        <v>0.68895</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184">
+        <v>7.24835</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185">
+        <v>7.03352</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186">
+        <v>2.91285</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187">
+        <v>1.08724</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188">
+        <v>1.27996</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189">
+        <v>6.47566</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190">
+        <v>2.00782</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191">
+        <v>3.54061</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192">
+        <v>27.02745</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193">
+        <v>6.85014</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194">
+        <v>0.7410600000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195">
+        <v>0.65498</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196">
+        <v>0.6469</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197">
+        <v>0.59011</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198">
+        <v>0.33782</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199">
+        <v>0.33153</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200">
+        <v>0.42983</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201">
+        <v>0.36522</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202">
+        <v>0.37879</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203">
+        <v>0.41788</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204">
+        <v>0.30934</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205">
+        <v>0.26199</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206">
+        <v>0.33809</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207">
+        <v>0.34699</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208">
+        <v>0.31446</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209">
+        <v>0.35642</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210">
+        <v>0.55067</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211">
+        <v>0.48059</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212">
+        <v>0.63387</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213">
+        <v>0.88266</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214">
+        <v>15.28053</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215">
+        <v>31.65827</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216">
+        <v>1.64169</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217">
+        <v>7.32013</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218">
+        <v>1.71887</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219">
+        <v>1.25067</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220">
+        <v>6.40504</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221">
+        <v>2.15094</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222">
+        <v>1.14546</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223">
+        <v>1.62237</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224">
+        <v>8.165240000000001</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225">
+        <v>2.03477</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226">
+        <v>1.75202</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227">
+        <v>10.67135</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228">
+        <v>7.21007</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229">
+        <v>1.71869</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230">
+        <v>4.1266</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231">
+        <v>19.97119</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232">
+        <v>9.036670000000001</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233">
+        <v>0.76046</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234">
+        <v>0.42066</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235">
+        <v>0.39649</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236">
+        <v>0.34923</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237">
+        <v>0.50269</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238">
+        <v>0.4982</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239">
+        <v>0.6947</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240">
+        <v>0.32147</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241">
+        <v>0.34097</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242">
+        <v>0.46325</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243">
+        <v>0.35615</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244">
+        <v>0.42695</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B245">
+        <v>0.52327</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B246">
+        <v>0.35265</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B247">
+        <v>0.41644</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B248">
+        <v>0.42075</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B249">
+        <v>0.28418</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B250">
+        <v>0.27825</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B251">
+        <v>0.37106</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B252">
+        <v>0.73899</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B253">
+        <v>0.66819</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B254">
+        <v>0.44546</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B255">
+        <v>0.91195</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B256">
+        <v>0.38679</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B257">
+        <v>0.30655</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B258">
+        <v>0.49703</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B259">
+        <v>0.36558</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B260">
+        <v>0.29047</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B261">
+        <v>0.29047</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B262">
+        <v>0.48131</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B263">
+        <v>0.81141</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B264">
+        <v>0.32075</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B265">
+        <v>0.3601</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B266">
+        <v>0.53962</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B267">
+        <v>0.81976</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B268">
+        <v>0.30233</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B269">
+        <v>0.33171</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B270">
+        <v>0.29586</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B271">
+        <v>0.26127</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B272">
+        <v>0.33854</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B273">
+        <v>0.37547</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B274">
+        <v>0.3194</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B275">
+        <v>0.26244</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B276">
+        <v>0.37232</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B277">
+        <v>0.43584</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B278">
+        <v>0.28787</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B279">
+        <v>0.22857</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B280">
+        <v>0.192</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B281">
+        <v>0.17681</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B282">
+        <v>0.17502</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B283">
+        <v>0.16352</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B284">
+        <v>0.16271</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B285">
+        <v>0.15606</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B286">
+        <v>0.15723</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B287">
+        <v>0.1769</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B288">
+        <v>0.17376</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B289">
+        <v>0.1654</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B290">
+        <v>0.17295</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291">
+        <v>0.19442</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292">
+        <v>0.1646</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B293">
+        <v>0.15175</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B294">
+        <v>0.15741</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B295">
+        <v>0.16208</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B296">
+        <v>0.16747</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B297">
+        <v>0.15705</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B298">
+        <v>0.15471</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B299">
+        <v>0.15265</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B300">
+        <v>0.14681</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B301">
+        <v>0.15453</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B302">
+        <v>0.15822</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B303">
+        <v>0.1548</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B304">
+        <v>0.15022</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B305">
+        <v>0.16127</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B306">
+        <v>0.15265</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B307">
+        <v>0.14213</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B308">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B309">
+        <v>0.15642</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B310">
+        <v>0.17142</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B311">
+        <v>0.14941</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B312">
+        <v>0.17672</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B313">
+        <v>0.17852</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314">
+        <v>0.12461</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B315">
+        <v>0.18032</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B316">
+        <v>0.19577</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B317">
+        <v>0.21015</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B318">
+        <v>0.1823</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B319">
+        <v>0.1867</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B320">
+        <v>0.18975</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B321">
+        <v>0.14779</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B322">
+        <v>0.13791</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323">
+        <v>0.16864</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B324">
+        <v>0.17574</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B325">
+        <v>0.2106</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B326">
+        <v>0.13351</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B327">
+        <v>0.16343</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B328">
+        <v>0.13477</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B329">
+        <v>0.13513</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B330">
+        <v>0.17223</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B331">
+        <v>0.18724</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B332">
+        <v>0.20862</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B333">
+        <v>0.20575</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B334">
+        <v>0.63081</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B335">
+        <v>0.8124</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B336">
+        <v>0.59559</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B337">
+        <v>0.26496</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B338">
+        <v>0.22866</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B339">
+        <v>0.21536</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B340">
+        <v>0.21078</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B341">
+        <v>0.23602</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B342">
+        <v>0.78769</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B343">
+        <v>0.83225</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B344">
+        <v>0.29793</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B345">
+        <v>0.24779</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B346">
+        <v>0.21967</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B347">
+        <v>0.20781</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B348">
+        <v>0.38436</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B349">
+        <v>0.67322</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B350">
+        <v>0.7725</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B351">
+        <v>0.29317</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B352">
+        <v>0.34079</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B353">
+        <v>0.36397</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B354">
+        <v>0.21787</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B355">
+        <v>0.36424</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B356">
+        <v>0.70871</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B357">
+        <v>0.63081</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B358">
+        <v>0.24537</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B359">
+        <v>0.20961</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B360">
+        <v>0.20422</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B361">
+        <v>0.20934</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B362">
+        <v>0.3752</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B363">
+        <v>0.83522</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B364">
+        <v>0.63036</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B365">
+        <v>0.24115</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B366">
+        <v>0.19802</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B367">
+        <v>0.21329</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B368">
+        <v>0.20215</v>
       </c>
     </row>
   </sheetData>
